--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2556.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2556.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.135382077929091</v>
+        <v>1.837750196456909</v>
       </c>
       <c r="B1">
-        <v>1.811727798286276</v>
+        <v>1.826491475105286</v>
       </c>
       <c r="C1">
-        <v>3.87938293145546</v>
+        <v>7.815680027008057</v>
       </c>
       <c r="D1">
-        <v>1.953200766121773</v>
+        <v>0.9835314154624939</v>
       </c>
       <c r="E1">
-        <v>0.8172030517350447</v>
+        <v>0.4174738228321075</v>
       </c>
     </row>
   </sheetData>
